--- a/Documentation/CENG319Budget.xlsx
+++ b/Documentation/CENG319Budget.xlsx
@@ -1,22 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\N01101196\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="113" windowWidth="15150" windowHeight="6413"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9600"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="34">
   <si>
     <t xml:space="preserve">Name </t>
   </si>
@@ -112,14 +117,20 @@
   </si>
   <si>
     <t>10k ohm resistor</t>
+  </si>
+  <si>
+    <t>4 pin header</t>
+  </si>
+  <si>
+    <t>6 pin I/O Extender</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="44" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -184,38 +195,42 @@
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="44" fontId="2" fillId="2" borderId="0" xfId="2" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="2" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -228,6 +243,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -276,7 +294,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -311,7 +329,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -520,23 +538,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N10"/>
+  <dimension ref="A1:N11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.19921875" customWidth="1"/>
-    <col min="2" max="2" width="27.53125" customWidth="1"/>
-    <col min="3" max="3" width="15.19921875" customWidth="1"/>
-    <col min="4" max="4" width="11.3984375" customWidth="1"/>
-    <col min="5" max="5" width="12.73046875" customWidth="1"/>
-    <col min="11" max="11" width="10.86328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.140625" customWidth="1"/>
+    <col min="2" max="2" width="27.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.140625" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" customWidth="1"/>
+    <col min="11" max="11" width="10.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -577,7 +595,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>30</v>
       </c>
@@ -620,7 +638,7 @@
       </c>
       <c r="N2" s="4"/>
     </row>
-    <row r="3" spans="1:14" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
         <v>17</v>
       </c>
@@ -642,7 +660,7 @@
       <c r="M3" s="4"/>
       <c r="N3" s="4"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
         <v>18</v>
       </c>
@@ -662,7 +680,7 @@
       <c r="M4" s="4"/>
       <c r="N4" s="4"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
         <v>19</v>
       </c>
@@ -684,7 +702,7 @@
       <c r="M5" s="4"/>
       <c r="N5" s="4"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
         <v>20</v>
       </c>
@@ -706,7 +724,7 @@
       <c r="M6" s="4"/>
       <c r="N6" s="4"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>31</v>
       </c>
@@ -735,7 +753,7 @@
       <c r="M7" s="4"/>
       <c r="N7" s="4"/>
     </row>
-    <row r="8" spans="1:14" ht="53.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:14" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>11</v>
       </c>
@@ -779,43 +797,85 @@
       </c>
       <c r="N8" s="4"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="E9">
+        <v>0.63</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9" s="12">
+        <v>0.63</v>
+      </c>
+      <c r="H9" s="12">
+        <v>8.2000000000000003E-2</v>
+      </c>
+      <c r="J9" s="12"/>
       <c r="N9" s="4"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>33</v>
+      </c>
+      <c r="E10">
+        <v>3.43</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10" s="12">
+        <v>3.43</v>
+      </c>
+      <c r="H10" s="12">
+        <v>0.45</v>
+      </c>
+      <c r="J10" s="12">
+        <v>8</v>
+      </c>
+      <c r="K10" s="12">
+        <v>12.59</v>
+      </c>
+      <c r="L10" s="12">
+        <v>12.59</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>29</v>
       </c>
-      <c r="E10" s="2">
+      <c r="E11" s="2">
         <f>SUM(E2:E8)</f>
         <v>139.51</v>
       </c>
-      <c r="F10">
+      <c r="F11">
         <v>2</v>
       </c>
-      <c r="G10" s="2">
+      <c r="G11" s="2">
         <f>SUM(G2:G8)</f>
         <v>129.94</v>
       </c>
-      <c r="H10" s="2">
+      <c r="H11" s="2">
         <f>SUM(H2:H8)</f>
         <v>13</v>
       </c>
-      <c r="I10" s="2">
+      <c r="I11" s="2">
         <f>SUM(I2:I8)</f>
         <v>3.89</v>
       </c>
-      <c r="J10" s="2">
+      <c r="J11" s="2">
         <f>SUM(J2:J8)</f>
         <v>20.39</v>
       </c>
-      <c r="K10" s="2">
+      <c r="K11" s="2">
         <f>SUM(K2:K8)</f>
         <v>167.97</v>
       </c>
-      <c r="L10" s="9">
-        <f>SUM(L2:L8)</f>
-        <v>183.91419999999999</v>
+      <c r="L11" s="9">
+        <f>SUM(L2:L10)</f>
+        <v>196.5042</v>
       </c>
     </row>
   </sheetData>
@@ -833,7 +893,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -845,7 +905,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
